--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="206">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,574 +49,580 @@
     <t>useless</t>
   </si>
   <si>
+    <t>defective</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>junk</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>months</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>sauce</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>fits</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>comes</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>wanted</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>work</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sauce</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>owned</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>spoon</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fits</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>cu</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>comes</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>arrived</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>knife</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>size</t>
@@ -983,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q179"/>
+  <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1000,7 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1052,13 +1058,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1070,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1094,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1102,13 +1108,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8148148148148148</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1120,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1144,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1152,13 +1158,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1170,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>31</v>
@@ -1202,13 +1208,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4716981132075472</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1220,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K6">
-        <v>0.8984375</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L6">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="M6">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1244,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1252,13 +1258,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4418604651162791</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1270,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K7">
-        <v>0.8699690402476781</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>562</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>562</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1294,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1302,13 +1308,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1320,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1344,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1352,13 +1358,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3939393939393939</v>
+        <v>0.44</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1370,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K9">
-        <v>0.855072463768116</v>
+        <v>0.8839009287925697</v>
       </c>
       <c r="L9">
-        <v>59</v>
+        <v>571</v>
       </c>
       <c r="M9">
-        <v>59</v>
+        <v>571</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1394,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1402,13 +1408,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3846153846153846</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1420,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K10">
-        <v>0.85</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1444,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1452,13 +1458,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2555555555555555</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1470,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1494,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1502,37 +1508,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2361111111111111</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12">
-        <v>0.7808219178082192</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L12">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1544,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1552,13 +1558,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2352941176470588</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1570,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1594,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1602,13 +1608,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2203389830508475</v>
+        <v>0.2486486486486487</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1620,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K14">
-        <v>0.7445887445887446</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L14">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1644,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1652,13 +1658,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2054054054054054</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1670,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>0.7220338983050848</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L15">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1694,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1702,13 +1708,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2038834951456311</v>
+        <v>0.2135922330097087</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1720,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K16">
-        <v>0.7142857142857143</v>
+        <v>0.7559322033898305</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1744,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1752,37 +1758,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1398963730569948</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L17">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="M17">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1802,37 +1808,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1360544217687075</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F18">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.7111111111111111</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1844,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1852,37 +1858,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.05923344947735192</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>0.29</v>
+        <v>0.05</v>
       </c>
       <c r="F19">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>270</v>
+        <v>127</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K19">
-        <v>0.7037037037037037</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1894,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1902,37 +1908,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05157593123209169</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>0.55</v>
+        <v>0.04</v>
       </c>
       <c r="F20">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>331</v>
+        <v>169</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>0.6947791164658634</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L20">
-        <v>865</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>866</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1941,10 +1947,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>380</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1952,37 +1958,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02928870292887029</v>
+        <v>0.02452316076294278</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E21">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="F21">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>0.6938775510204082</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>840</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>840</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2002,37 +2008,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01443695861405197</v>
+        <v>0.01735776277724204</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E22">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F22">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2052,13 +2058,13 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.671875</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2078,13 +2084,13 @@
         <v>50</v>
       </c>
       <c r="K24">
-        <v>0.6619718309859155</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2096,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2104,13 +2110,13 @@
         <v>51</v>
       </c>
       <c r="K25">
-        <v>0.6617647058823529</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2122,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2130,13 +2136,13 @@
         <v>52</v>
       </c>
       <c r="K26">
-        <v>0.6571428571428571</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2148,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2156,13 +2162,13 @@
         <v>53</v>
       </c>
       <c r="K27">
-        <v>0.65625</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2174,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2182,13 +2188,13 @@
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.6551724137931034</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2200,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2208,13 +2214,13 @@
         <v>55</v>
       </c>
       <c r="K29">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2226,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2234,13 +2240,13 @@
         <v>56</v>
       </c>
       <c r="K30">
-        <v>0.6457142857142857</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L30">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2252,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2260,13 +2266,13 @@
         <v>57</v>
       </c>
       <c r="K31">
-        <v>0.64</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2278,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2286,13 +2292,13 @@
         <v>58</v>
       </c>
       <c r="K32">
-        <v>0.6341463414634146</v>
+        <v>0.625</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2312,13 +2318,13 @@
         <v>59</v>
       </c>
       <c r="K33">
-        <v>0.631578947368421</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2330,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2338,13 +2344,13 @@
         <v>60</v>
       </c>
       <c r="K34">
-        <v>0.6307692307692307</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2356,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2364,13 +2370,13 @@
         <v>61</v>
       </c>
       <c r="K35">
-        <v>0.6167664670658682</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L35">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2382,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2390,13 +2396,13 @@
         <v>62</v>
       </c>
       <c r="K36">
-        <v>0.6153846153846154</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2408,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2416,13 +2422,13 @@
         <v>63</v>
       </c>
       <c r="K37">
-        <v>0.6078431372549019</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2442,13 +2448,13 @@
         <v>64</v>
       </c>
       <c r="K38">
-        <v>0.6</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2460,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2468,13 +2474,13 @@
         <v>65</v>
       </c>
       <c r="K39">
-        <v>0.5903614457831325</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L39">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2486,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2494,13 +2500,13 @@
         <v>66</v>
       </c>
       <c r="K40">
-        <v>0.5897435897435898</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L40">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2512,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2520,13 +2526,13 @@
         <v>67</v>
       </c>
       <c r="K41">
-        <v>0.5833333333333334</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2538,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2546,13 +2552,13 @@
         <v>68</v>
       </c>
       <c r="K42">
-        <v>0.5737704918032787</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2564,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2572,13 +2578,13 @@
         <v>69</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2590,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2598,13 +2604,13 @@
         <v>70</v>
       </c>
       <c r="K44">
-        <v>0.5673076923076923</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L44">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M44">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2616,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2624,13 +2630,13 @@
         <v>71</v>
       </c>
       <c r="K45">
-        <v>0.5641025641025641</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2642,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2650,13 +2656,13 @@
         <v>72</v>
       </c>
       <c r="K46">
-        <v>0.5641025641025641</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2668,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2676,13 +2682,13 @@
         <v>73</v>
       </c>
       <c r="K47">
-        <v>0.5600000000000001</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L47">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2694,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2702,13 +2708,13 @@
         <v>74</v>
       </c>
       <c r="K48">
-        <v>0.5306122448979592</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2720,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2728,13 +2734,13 @@
         <v>75</v>
       </c>
       <c r="K49">
-        <v>0.5263157894736842</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M49">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2746,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2754,13 +2760,13 @@
         <v>76</v>
       </c>
       <c r="K50">
-        <v>0.5230769230769231</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2772,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2780,13 +2786,13 @@
         <v>77</v>
       </c>
       <c r="K51">
-        <v>0.5185185185185185</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L51">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M51">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2798,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2806,13 +2812,13 @@
         <v>78</v>
       </c>
       <c r="K52">
-        <v>0.5151515151515151</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2824,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2832,13 +2838,13 @@
         <v>79</v>
       </c>
       <c r="K53">
-        <v>0.4782608695652174</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2850,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2858,13 +2864,13 @@
         <v>80</v>
       </c>
       <c r="K54">
-        <v>0.4722222222222222</v>
+        <v>0.51</v>
       </c>
       <c r="L54">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M54">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2876,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2884,13 +2890,13 @@
         <v>81</v>
       </c>
       <c r="K55">
-        <v>0.4722222222222222</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2902,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2910,13 +2916,13 @@
         <v>82</v>
       </c>
       <c r="K56">
-        <v>0.4642857142857143</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2928,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2936,13 +2942,13 @@
         <v>83</v>
       </c>
       <c r="K57">
-        <v>0.4586466165413534</v>
+        <v>0.5</v>
       </c>
       <c r="L57">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2954,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2962,13 +2968,13 @@
         <v>84</v>
       </c>
       <c r="K58">
-        <v>0.4516129032258064</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L58">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2980,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2988,13 +2994,13 @@
         <v>85</v>
       </c>
       <c r="K59">
-        <v>0.4473684210526316</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3006,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3014,13 +3020,13 @@
         <v>86</v>
       </c>
       <c r="K60">
-        <v>0.446078431372549</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L60">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="M60">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3032,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>226</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3040,13 +3046,13 @@
         <v>87</v>
       </c>
       <c r="K61">
-        <v>0.4363636363636363</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3058,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3066,13 +3072,13 @@
         <v>88</v>
       </c>
       <c r="K62">
-        <v>0.4285714285714285</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3084,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3092,13 +3098,13 @@
         <v>89</v>
       </c>
       <c r="K63">
-        <v>0.4216867469879518</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L63">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3110,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3118,13 +3124,13 @@
         <v>90</v>
       </c>
       <c r="K64">
-        <v>0.4186046511627907</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3136,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3144,25 +3150,25 @@
         <v>91</v>
       </c>
       <c r="K65">
-        <v>0.4182692307692308</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L65">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="N65">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3170,13 +3176,13 @@
         <v>92</v>
       </c>
       <c r="K66">
-        <v>0.4130434782608696</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M66">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3188,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3196,13 +3202,13 @@
         <v>93</v>
       </c>
       <c r="K67">
-        <v>0.4126984126984127</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L67">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3214,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3222,13 +3228,13 @@
         <v>94</v>
       </c>
       <c r="K68">
-        <v>0.410958904109589</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L68">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="M68">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3240,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>430</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3248,13 +3254,13 @@
         <v>95</v>
       </c>
       <c r="K69">
-        <v>0.4078947368421053</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L69">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3266,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3274,13 +3280,13 @@
         <v>96</v>
       </c>
       <c r="K70">
-        <v>0.4054054054054054</v>
+        <v>0.4163424124513619</v>
       </c>
       <c r="L70">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M70">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3292,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>66</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3300,13 +3306,13 @@
         <v>97</v>
       </c>
       <c r="K71">
-        <v>0.4042553191489361</v>
+        <v>0.4144144144144144</v>
       </c>
       <c r="L71">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M71">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3318,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3326,13 +3332,13 @@
         <v>98</v>
       </c>
       <c r="K72">
-        <v>0.4007782101167315</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L72">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3344,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>154</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3352,13 +3358,13 @@
         <v>99</v>
       </c>
       <c r="K73">
-        <v>0.4</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L73">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3370,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3378,13 +3384,13 @@
         <v>100</v>
       </c>
       <c r="K74">
-        <v>0.3970588235294117</v>
+        <v>0.4013698630136986</v>
       </c>
       <c r="L74">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="M74">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3396,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>41</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3404,13 +3410,13 @@
         <v>101</v>
       </c>
       <c r="K75">
-        <v>0.3684210526315789</v>
+        <v>0.390625</v>
       </c>
       <c r="L75">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3422,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3430,13 +3436,13 @@
         <v>102</v>
       </c>
       <c r="K76">
-        <v>0.3663366336633663</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L76">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M76">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3448,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3456,13 +3462,13 @@
         <v>103</v>
       </c>
       <c r="K77">
-        <v>0.3597122302158273</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="L77">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M77">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3474,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3482,13 +3488,13 @@
         <v>104</v>
       </c>
       <c r="K78">
-        <v>0.359375</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L78">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M78">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3500,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3508,13 +3514,13 @@
         <v>105</v>
       </c>
       <c r="K79">
-        <v>0.3571428571428572</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3526,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3534,13 +3540,13 @@
         <v>106</v>
       </c>
       <c r="K80">
-        <v>0.3513513513513514</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L80">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3552,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3560,13 +3566,13 @@
         <v>107</v>
       </c>
       <c r="K81">
-        <v>0.3452380952380952</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="L81">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3578,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3586,13 +3592,13 @@
         <v>108</v>
       </c>
       <c r="K82">
-        <v>0.34375</v>
+        <v>0.3642384105960265</v>
       </c>
       <c r="L82">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M82">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3604,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3612,13 +3618,13 @@
         <v>109</v>
       </c>
       <c r="K83">
-        <v>0.3425925925925926</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L83">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M83">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3630,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3638,25 +3644,25 @@
         <v>110</v>
       </c>
       <c r="K84">
-        <v>0.3229278794402584</v>
+        <v>0.36</v>
       </c>
       <c r="L84">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="M84">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>629</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3664,13 +3670,13 @@
         <v>111</v>
       </c>
       <c r="K85">
-        <v>0.3178807947019868</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="L85">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M85">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3682,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3690,25 +3696,25 @@
         <v>112</v>
       </c>
       <c r="K86">
-        <v>0.3125</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M86">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N86">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3716,13 +3722,13 @@
         <v>113</v>
       </c>
       <c r="K87">
-        <v>0.3047619047619048</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L87">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M87">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3734,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3742,13 +3748,13 @@
         <v>114</v>
       </c>
       <c r="K88">
-        <v>0.2941176470588235</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L88">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M88">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3760,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3768,13 +3774,13 @@
         <v>115</v>
       </c>
       <c r="K89">
-        <v>0.2940397350993377</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L89">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="M89">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3786,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>533</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3794,13 +3800,13 @@
         <v>116</v>
       </c>
       <c r="K90">
-        <v>0.2823529411764706</v>
+        <v>0.317545748116254</v>
       </c>
       <c r="L90">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="M90">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3812,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>61</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3820,13 +3826,13 @@
         <v>117</v>
       </c>
       <c r="K91">
-        <v>0.2786885245901639</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3838,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3846,25 +3852,25 @@
         <v>118</v>
       </c>
       <c r="K92">
-        <v>0.2774936061381074</v>
+        <v>0.298804780876494</v>
       </c>
       <c r="L92">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M92">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>565</v>
+        <v>528</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3872,25 +3878,25 @@
         <v>119</v>
       </c>
       <c r="K93">
-        <v>0.2741935483870968</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L93">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="M93">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>45</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3898,7 +3904,7 @@
         <v>120</v>
       </c>
       <c r="K94">
-        <v>0.2650602409638554</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L94">
         <v>22</v>
@@ -3916,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3924,13 +3930,13 @@
         <v>121</v>
       </c>
       <c r="K95">
-        <v>0.261744966442953</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="L95">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M95">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3942,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3950,13 +3956,13 @@
         <v>122</v>
       </c>
       <c r="K96">
-        <v>0.2615384615384616</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="L96">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3968,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3976,13 +3982,13 @@
         <v>123</v>
       </c>
       <c r="K97">
-        <v>0.2542372881355932</v>
+        <v>0.28125</v>
       </c>
       <c r="L97">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M97">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3994,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -4002,25 +4008,25 @@
         <v>124</v>
       </c>
       <c r="K98">
-        <v>0.2541966426858513</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="L98">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="M98">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N98">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>311</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -4028,13 +4034,13 @@
         <v>125</v>
       </c>
       <c r="K99">
-        <v>0.25</v>
+        <v>0.2763157894736842</v>
       </c>
       <c r="L99">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M99">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -4046,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -4054,13 +4060,13 @@
         <v>126</v>
       </c>
       <c r="K100">
-        <v>0.2467532467532468</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="L100">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="M100">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -4072,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>58</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -4080,13 +4086,13 @@
         <v>127</v>
       </c>
       <c r="K101">
-        <v>0.24</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L101">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M101">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -4098,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -4106,25 +4112,25 @@
         <v>128</v>
       </c>
       <c r="K102">
-        <v>0.24</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="L102">
         <v>18</v>
       </c>
       <c r="M102">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -4132,13 +4138,13 @@
         <v>129</v>
       </c>
       <c r="K103">
-        <v>0.2394366197183098</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L103">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M103">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -4150,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -4158,13 +4164,13 @@
         <v>130</v>
       </c>
       <c r="K104">
-        <v>0.2391304347826087</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L104">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M104">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -4176,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -4184,13 +4190,13 @@
         <v>131</v>
       </c>
       <c r="K105">
-        <v>0.2382445141065831</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="L105">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="M105">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -4202,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>243</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -4210,25 +4216,25 @@
         <v>132</v>
       </c>
       <c r="K106">
-        <v>0.2377049180327869</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L106">
+        <v>30</v>
+      </c>
+      <c r="M106">
+        <v>30</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
         <v>87</v>
-      </c>
-      <c r="M106">
-        <v>92</v>
-      </c>
-      <c r="N106">
-        <v>0.95</v>
-      </c>
-      <c r="O106">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P106" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q106">
-        <v>279</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -4236,13 +4242,13 @@
         <v>133</v>
       </c>
       <c r="K107">
-        <v>0.2365591397849462</v>
+        <v>0.2550335570469799</v>
       </c>
       <c r="L107">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M107">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -4254,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>71</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -4262,13 +4268,13 @@
         <v>134</v>
       </c>
       <c r="K108">
-        <v>0.2325581395348837</v>
+        <v>0.2530120481927711</v>
       </c>
       <c r="L108">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M108">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -4280,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -4288,25 +4294,25 @@
         <v>135</v>
       </c>
       <c r="K109">
-        <v>0.2307692307692308</v>
+        <v>0.2518518518518518</v>
       </c>
       <c r="L109">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="M109">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109">
-        <v>90</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -4314,13 +4320,13 @@
         <v>136</v>
       </c>
       <c r="K110">
-        <v>0.2307692307692308</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L110">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M110">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -4332,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -4340,13 +4346,13 @@
         <v>137</v>
       </c>
       <c r="K111">
-        <v>0.2307692307692308</v>
+        <v>0.2470588235294118</v>
       </c>
       <c r="L111">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M111">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4358,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -4366,13 +4372,13 @@
         <v>138</v>
       </c>
       <c r="K112">
-        <v>0.2297297297297297</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L112">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="M112">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4384,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>57</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -4392,25 +4398,25 @@
         <v>139</v>
       </c>
       <c r="K113">
-        <v>0.2272727272727273</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L113">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="M113">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>68</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -4418,13 +4424,13 @@
         <v>140</v>
       </c>
       <c r="K114">
-        <v>0.225609756097561</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L114">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M114">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4436,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>127</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -4444,25 +4450,25 @@
         <v>141</v>
       </c>
       <c r="K115">
-        <v>0.2244897959183673</v>
+        <v>0.233890214797136</v>
       </c>
       <c r="L115">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M115">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N115">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>76</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="10:17">
@@ -4470,25 +4476,25 @@
         <v>142</v>
       </c>
       <c r="K116">
-        <v>0.2232142857142857</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="L116">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M116">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N116">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="10:17">
@@ -4496,25 +4502,25 @@
         <v>143</v>
       </c>
       <c r="K117">
-        <v>0.221978021978022</v>
+        <v>0.2317073170731707</v>
       </c>
       <c r="L117">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="M117">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="N117">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>354</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="10:17">
@@ -4522,25 +4528,25 @@
         <v>144</v>
       </c>
       <c r="K118">
-        <v>0.2171717171717172</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L118">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M118">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N118">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>155</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="10:17">
@@ -4548,13 +4554,13 @@
         <v>145</v>
       </c>
       <c r="K119">
-        <v>0.2146892655367232</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L119">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M119">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4566,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>139</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="10:17">
@@ -4574,13 +4580,13 @@
         <v>146</v>
       </c>
       <c r="K120">
-        <v>0.2140221402214022</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="L120">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M120">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -4592,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>213</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="10:17">
@@ -4600,13 +4606,13 @@
         <v>147</v>
       </c>
       <c r="K121">
-        <v>0.2131147540983606</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="L121">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M121">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4618,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>96</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="10:17">
@@ -4626,25 +4632,25 @@
         <v>148</v>
       </c>
       <c r="K122">
-        <v>0.2117647058823529</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L122">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M122">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122">
-        <v>67</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="10:17">
@@ -4652,25 +4658,25 @@
         <v>149</v>
       </c>
       <c r="K123">
-        <v>0.2068965517241379</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L123">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="M123">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="N123">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>230</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="10:17">
@@ -4678,25 +4684,25 @@
         <v>150</v>
       </c>
       <c r="K124">
-        <v>0.2063492063492063</v>
+        <v>0.2095671981776766</v>
       </c>
       <c r="L124">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="M124">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
-        <v>100</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="10:17">
@@ -4704,13 +4710,13 @@
         <v>151</v>
       </c>
       <c r="K125">
-        <v>0.1974789915966386</v>
+        <v>0.2085889570552147</v>
       </c>
       <c r="L125">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M125">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -4722,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>191</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="10:17">
@@ -4730,13 +4736,13 @@
         <v>152</v>
       </c>
       <c r="K126">
-        <v>0.1948051948051948</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="L126">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M126">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4748,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="10:17">
@@ -4756,25 +4762,25 @@
         <v>153</v>
       </c>
       <c r="K127">
-        <v>0.1948051948051948</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="L127">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M127">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="10:17">
@@ -4782,13 +4788,13 @@
         <v>154</v>
       </c>
       <c r="K128">
-        <v>0.1927710843373494</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="L128">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M128">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -4800,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="10:17">
@@ -4808,25 +4814,25 @@
         <v>155</v>
       </c>
       <c r="K129">
-        <v>0.1926605504587156</v>
+        <v>0.1970260223048327</v>
       </c>
       <c r="L129">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M129">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O129">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="10:17">
@@ -4834,25 +4840,25 @@
         <v>156</v>
       </c>
       <c r="K130">
-        <v>0.1908396946564886</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L130">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M130">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="10:17">
@@ -4860,25 +4866,25 @@
         <v>157</v>
       </c>
       <c r="K131">
-        <v>0.1896551724137931</v>
+        <v>0.194647201946472</v>
       </c>
       <c r="L131">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M131">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N131">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="10:17">
@@ -4886,25 +4892,25 @@
         <v>158</v>
       </c>
       <c r="K132">
-        <v>0.1835443037974684</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="L132">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M132">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N132">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O132">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P132" t="b">
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="10:17">
@@ -4912,25 +4918,25 @@
         <v>159</v>
       </c>
       <c r="K133">
-        <v>0.1794871794871795</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="L133">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M133">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="10:17">
@@ -4938,13 +4944,13 @@
         <v>160</v>
       </c>
       <c r="K134">
-        <v>0.1782945736434109</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L134">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M134">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -4956,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="10:17">
@@ -4964,25 +4970,25 @@
         <v>161</v>
       </c>
       <c r="K135">
-        <v>0.1693363844393593</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L135">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M135">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="N135">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O135">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>363</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="10:17">
@@ -4990,25 +4996,25 @@
         <v>162</v>
       </c>
       <c r="K136">
-        <v>0.1672862453531599</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="L136">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M136">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N136">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O136">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q136">
-        <v>224</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="10:17">
@@ -5016,25 +5022,25 @@
         <v>163</v>
       </c>
       <c r="K137">
-        <v>0.1634615384615385</v>
+        <v>0.176056338028169</v>
       </c>
       <c r="L137">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M137">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O137">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q137">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="10:17">
@@ -5042,25 +5048,25 @@
         <v>164</v>
       </c>
       <c r="K138">
-        <v>0.1612903225806452</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="L138">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M138">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N138">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q138">
-        <v>208</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="10:17">
@@ -5068,13 +5074,13 @@
         <v>165</v>
       </c>
       <c r="K139">
-        <v>0.1595092024539877</v>
+        <v>0.17</v>
       </c>
       <c r="L139">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M139">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -5086,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>137</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="10:17">
@@ -5094,13 +5100,13 @@
         <v>166</v>
       </c>
       <c r="K140">
-        <v>0.1578947368421053</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="L140">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M140">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -5112,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="10:17">
@@ -5120,25 +5126,25 @@
         <v>167</v>
       </c>
       <c r="K141">
-        <v>0.1491228070175439</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L141">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M141">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N141">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O141">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q141">
-        <v>97</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="10:17">
@@ -5146,13 +5152,13 @@
         <v>168</v>
       </c>
       <c r="K142">
-        <v>0.1486486486486487</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="L142">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M142">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -5164,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>126</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="10:17">
@@ -5172,13 +5178,13 @@
         <v>169</v>
       </c>
       <c r="K143">
-        <v>0.1442307692307692</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L143">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M143">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -5190,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="10:17">
@@ -5198,25 +5204,25 @@
         <v>170</v>
       </c>
       <c r="K144">
-        <v>0.1424657534246575</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L144">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M144">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N144">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O144">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>313</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="10:17">
@@ -5224,25 +5230,25 @@
         <v>171</v>
       </c>
       <c r="K145">
-        <v>0.1360225140712946</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L145">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="M145">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="N145">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O145">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>921</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="10:17">
@@ -5250,25 +5256,25 @@
         <v>172</v>
       </c>
       <c r="K146">
-        <v>0.134393063583815</v>
+        <v>0.1497975708502024</v>
       </c>
       <c r="L146">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="M146">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N146">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O146">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P146" t="b">
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>599</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="10:17">
@@ -5276,25 +5282,25 @@
         <v>173</v>
       </c>
       <c r="K147">
-        <v>0.1333333333333333</v>
+        <v>0.1483870967741935</v>
       </c>
       <c r="L147">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M147">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q147">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="10:17">
@@ -5302,25 +5308,25 @@
         <v>174</v>
       </c>
       <c r="K148">
-        <v>0.1319444444444444</v>
+        <v>0.1452054794520548</v>
       </c>
       <c r="L148">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M148">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O148">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q148">
-        <v>125</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="10:17">
@@ -5328,25 +5334,25 @@
         <v>175</v>
       </c>
       <c r="K149">
-        <v>0.1317073170731707</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="L149">
+        <v>26</v>
+      </c>
+      <c r="M149">
         <v>27</v>
       </c>
-      <c r="M149">
-        <v>30</v>
-      </c>
       <c r="N149">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O149">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P149" t="b">
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="10:17">
@@ -5354,13 +5360,13 @@
         <v>176</v>
       </c>
       <c r="K150">
-        <v>0.1297297297297297</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="L150">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M150">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -5372,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="151" spans="10:17">
@@ -5380,25 +5386,25 @@
         <v>177</v>
       </c>
       <c r="K151">
-        <v>0.1285714285714286</v>
+        <v>0.1378986866791745</v>
       </c>
       <c r="L151">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="M151">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="N151">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O151">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q151">
-        <v>122</v>
+        <v>919</v>
       </c>
     </row>
     <row r="152" spans="10:17">
@@ -5406,25 +5412,25 @@
         <v>178</v>
       </c>
       <c r="K152">
-        <v>0.1241830065359477</v>
+        <v>0.1325648414985591</v>
       </c>
       <c r="L152">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="M152">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O152">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q152">
-        <v>134</v>
+        <v>602</v>
       </c>
     </row>
     <row r="153" spans="10:17">
@@ -5432,13 +5438,13 @@
         <v>179</v>
       </c>
       <c r="K153">
-        <v>0.1224489795918367</v>
+        <v>0.125</v>
       </c>
       <c r="L153">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M153">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N153">
         <v>1</v>
@@ -5450,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="10:17">
@@ -5458,25 +5464,25 @@
         <v>180</v>
       </c>
       <c r="K154">
-        <v>0.1220930232558139</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="L154">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M154">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N154">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O154">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P154" t="b">
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="10:17">
@@ -5484,25 +5490,25 @@
         <v>181</v>
       </c>
       <c r="K155">
-        <v>0.1210191082802548</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="L155">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M155">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N155">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O155">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q155">
-        <v>138</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="10:17">
@@ -5510,25 +5516,25 @@
         <v>182</v>
       </c>
       <c r="K156">
-        <v>0.119205298013245</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L156">
         <v>18</v>
       </c>
       <c r="M156">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N156">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O156">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q156">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="10:17">
@@ -5536,25 +5542,25 @@
         <v>183</v>
       </c>
       <c r="K157">
-        <v>0.1143410852713178</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L157">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M157">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N157">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O157">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>457</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="10:17">
@@ -5562,25 +5568,25 @@
         <v>184</v>
       </c>
       <c r="K158">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L158">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M158">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N158">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O158">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P158" t="b">
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="10:17">
@@ -5588,25 +5594,25 @@
         <v>185</v>
       </c>
       <c r="K159">
-        <v>0.1107011070110701</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="L159">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M159">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N159">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O159">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q159">
-        <v>241</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="10:17">
@@ -5614,77 +5620,77 @@
         <v>186</v>
       </c>
       <c r="K160">
-        <v>0.1092436974789916</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L160">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M160">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N160">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O160">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>212</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="K161">
-        <v>0.1069182389937107</v>
+        <v>0.1053555750658472</v>
       </c>
       <c r="L161">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="M161">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="N161">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O161">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>142</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="K162">
-        <v>0.1033274956217163</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="L162">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="M162">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="N162">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="O162">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="P162" t="b">
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>1024</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="10:17">
@@ -5692,25 +5698,25 @@
         <v>188</v>
       </c>
       <c r="K163">
-        <v>0.1007751937984496</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="L163">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M163">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="N163">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="O163">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P163" t="b">
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>348</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" spans="10:17">
@@ -5718,25 +5724,25 @@
         <v>189</v>
       </c>
       <c r="K164">
-        <v>0.1006711409395973</v>
+        <v>0.09845559845559845</v>
       </c>
       <c r="L164">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M164">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O164">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q164">
-        <v>134</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="10:17">
@@ -5744,25 +5750,25 @@
         <v>190</v>
       </c>
       <c r="K165">
-        <v>0.1</v>
+        <v>0.09796672828096119</v>
       </c>
       <c r="L165">
+        <v>53</v>
+      </c>
+      <c r="M165">
         <v>54</v>
       </c>
-      <c r="M165">
-        <v>56</v>
-      </c>
       <c r="N165">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O165">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P165" t="b">
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166" spans="10:17">
@@ -5770,25 +5776,25 @@
         <v>191</v>
       </c>
       <c r="K166">
-        <v>0.09644670050761421</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L166">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M166">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N166">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O166">
-        <v>0.05000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="P166" t="b">
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>178</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="10:17">
@@ -5796,25 +5802,25 @@
         <v>192</v>
       </c>
       <c r="K167">
-        <v>0.09580838323353294</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="L167">
         <v>16</v>
       </c>
       <c r="M167">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N167">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O167">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q167">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="168" spans="10:17">
@@ -5822,25 +5828,25 @@
         <v>193</v>
       </c>
       <c r="K168">
-        <v>0.09418282548476455</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L168">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M168">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N168">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="O168">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="P168" t="b">
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>327</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="10:17">
@@ -5848,25 +5854,25 @@
         <v>194</v>
       </c>
       <c r="K169">
-        <v>0.0903954802259887</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L169">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M169">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N169">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="O169">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="P169" t="b">
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="10:17">
@@ -5874,13 +5880,13 @@
         <v>195</v>
       </c>
       <c r="K170">
-        <v>0.08465608465608465</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="L170">
+        <v>15</v>
+      </c>
+      <c r="M170">
         <v>16</v>
-      </c>
-      <c r="M170">
-        <v>17</v>
       </c>
       <c r="N170">
         <v>0.9399999999999999</v>
@@ -5892,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="10:17">
@@ -5906,13 +5912,13 @@
         <v>15</v>
       </c>
       <c r="M171">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N171">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="O171">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="P171" t="b">
         <v>1</v>
@@ -5926,25 +5932,25 @@
         <v>197</v>
       </c>
       <c r="K172">
-        <v>0.07766990291262135</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="L172">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M172">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N172">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O172">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P172" t="b">
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>380</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="10:17">
@@ -5952,181 +5958,207 @@
         <v>198</v>
       </c>
       <c r="K173">
-        <v>0.07669616519174041</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="L173">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M173">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N173">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="O173">
-        <v>0.1899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="P173" t="b">
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>313</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="10:17">
       <c r="J174" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="K174">
-        <v>0.06702412868632708</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="L174">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M174">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="N174">
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="O174">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="P174" t="b">
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>696</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="10:17">
       <c r="J175" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K175">
-        <v>0.06529209621993128</v>
+        <v>0.08011869436201781</v>
       </c>
       <c r="L175">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M175">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N175">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="O175">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="P175" t="b">
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>272</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="10:17">
       <c r="J176" s="1" t="s">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="K176">
-        <v>0.06232294617563739</v>
+        <v>0.07167235494880546</v>
       </c>
       <c r="L176">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M176">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N176">
-        <v>0.55</v>
+        <v>0.78</v>
       </c>
       <c r="O176">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="P176" t="b">
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>331</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="10:17">
       <c r="J177" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K177">
-        <v>0.04691358024691358</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="L177">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M177">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N177">
-        <v>0.79</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O177">
-        <v>0.21</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P177" t="b">
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>386</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178" spans="10:17">
       <c r="J178" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K178">
-        <v>0.04584527220630372</v>
+        <v>0.06303724928366762</v>
       </c>
       <c r="L178">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M178">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N178">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="O178">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="P178" t="b">
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="179" spans="10:17">
       <c r="J179" s="1" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="K179">
-        <v>0.02493074792243767</v>
+        <v>0.04405874499332443</v>
       </c>
       <c r="L179">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M179">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N179">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="O179">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="P179" t="b">
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>704</v>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="180" spans="10:17">
+      <c r="J180" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K180">
+        <v>0.03851444291609354</v>
+      </c>
+      <c r="L180">
+        <v>28</v>
+      </c>
+      <c r="M180">
+        <v>36</v>
+      </c>
+      <c r="N180">
+        <v>0.78</v>
+      </c>
+      <c r="O180">
+        <v>0.22</v>
+      </c>
+      <c r="P180" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q180">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
